--- a/src/Excel/ActualizacionIntangibleCTS.xlsx
+++ b/src/Excel/ActualizacionIntangibleCTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40783E41-47F3-4BD9-BE22-D9325B300E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455D6A6E-A0FC-4ABC-9C91-EAF3903B6E6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActualizacionIntangibleCTS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>usuario</t>
   </si>
@@ -72,16 +72,31 @@
     <t/>
   </si>
   <si>
-    <t>5 mar. 2023, 19:33:08</t>
-  </si>
-  <si>
-    <t>5 mar. 2023, 19:55:52</t>
-  </si>
-  <si>
-    <t>5 mar. 2023, 19:56:27</t>
-  </si>
-  <si>
-    <t>5 mar. 2023, 19:58:27</t>
+    <t>6 mar. 2023, 11:29:17</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 11:35:51</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 11:37:27</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 11:38:21</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 14:09:00</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 14:27:41</t>
+  </si>
+  <si>
+    <t>AAACT23065SGF674R</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 15:54:05</t>
   </si>
 </sst>
 </file>
@@ -415,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,7 +445,7 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,7 +471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -473,19 +488,16 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
